--- a/medicine/Enfance/Sophie_Chérer/Sophie_Chérer.xlsx
+++ b/medicine/Enfance/Sophie_Chérer/Sophie_Chérer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sophie_Ch%C3%A9rer</t>
+          <t>Sophie_Chérer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Chérer est une auteure française de littérature d'enfance et de jeunesse, née le 29 août 1961 en Moselle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sophie_Ch%C3%A9rer</t>
+          <t>Sophie_Chérer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Chérer fait des études de droit et publie en 1980 pour la première fois un dessin dans Charlie Hebdo. De 1982 à 1984, elle fait divers travaux juridiques, notamment une étude sur le droit de l'environnement pour le ministère de la Justice. En 1984, elle obtient un DEA de droit pénal et criminologie.
 En 1985, elle devient programmatrice chez le distributeur de cinéma Sinfonia Films. Elle entre aussi par hasard, sur concours, dans l'équipe fondatrice du magazine de spectacles 7 à Paris[réf. nécessaire]. 
 De 1985 à 1992, elle est journaliste de presse écrite (7 à Paris, L'Autre Journal, L'Événement du jeudi)[réf. nécessaire] et audiovisuelle (Mille Bravo, Le Masque et la Plume)[réf. nécessaire], rubriques cinéma, théâtre, littérature.
 Après la naissance de sa fille en 1989, elle publie un premier roman pour la jeunesse en 1992. En 1993, elle est licenciée de L'Autre Journal et rentre dans son village natal[réf. nécessaire]. En 1994, elle écrit son premier roman pour adultes et fait ses premières animations scolaires. De 1995 à 1999, elle anime des ateliers d'écriture.
-En 2008, elle publie un essai, Ma Dolto, sur la pédopsychiatre Françoise Dolto[1].
+En 2008, elle publie un essai, Ma Dolto, sur la pédopsychiatre Françoise Dolto.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sophie_Ch%C3%A9rer</t>
+          <t>Sophie_Chérer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Fictions
-Sauf indication contraire, la plupart des romans pour la jeunesse de Sophie Chérer ont paru à l'École des loisirs.
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fictions</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sauf indication contraire, la plupart des romans pour la jeunesse de Sophie Chérer ont paru à l'École des loisirs.
  Une brique sur la tête de Suzanne (1992)
 Le Cadet de mes soucis (1993)
 Quand je pense à la Résistance (1993)
@@ -558,10 +580,10 @@
 Mathilde est tous les animaux (1994) - illustré par Véronique Deiss
 Ne me raconte plus d'histoires, maman ! (1994) - illustré par Anaïs Vaugelade
 La Seule Amie du roi (1995)
-Les Loups du paradis (1996) Prix Erckmann-Chatrian[2] 1996
+Les Loups du paradis (1996) Prix Erckmann-Chatrian 1996
 Les hamsters n'ont pas de voix (1997) - illustré par Béatrice Rodriguez
 Mathilde à la déchetterie (1999) - illustré par Véronique Deiss
-L'huile d'olive ne meurt jamais (2001) Prix ado-lisant[3] 2003
+L'huile d'olive ne meurt jamais (2001) Prix ado-lisant 2003
 L'Ogre maigre et l'Enfant fou (2002)  - illustré par Véronique Deiss
 Pourquoi Mamie n'est pas gâteau (2004) - illustré par Véronique Deiss
  Quatre sœurs et quatorze questions (2004)
@@ -580,53 +602,54 @@
 Mathilde à la cantine 3 étoiles, illustrations de Véronique Deiss, 2020
 Recueils collectifs de nouvelles
 C'est l'aventure !, Audren, Sophie Chérer, Thomas Lavachery, et al., l'École des loisirs, 2009
-12 histoires de liberté, égalité, fraternité, Nadine Brun-Cosme, Claude Carré, Sophie Chérer, et al., illustrées par Olivier Balez, Marc Daniau, Marianne Ratier, Ecarbelle, 2011
-Essais jeunesse sur des auteurs jeunesse
-L'album des albums : 41 portraits d'auteurs-illustrateurs de l'école des loisirs, Ecole des Loisirs, 1997
+12 histoires de liberté, égalité, fraternité, Nadine Brun-Cosme, Claude Carré, Sophie Chérer, et al., illustrées par Olivier Balez, Marc Daniau, Marianne Ratier, Ecarbelle, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sophie_Chérer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Ch%C3%A9rer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Essais jeunesse sur des auteurs jeunesse</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'album des albums : 41 portraits d'auteurs-illustrateurs de l'école des loisirs, Ecole des Loisirs, 1997
 Marie-Aude Murail, Ecole des Loisirs, 2001
 Susie Morgenstern, 2002
 Brigitte Smadja, Ecole des Loisirs, 2003
 Moka (Elvire Murail), Ecole des Loisirs, 2004
 Marie Desplechin, Ecole des Loisirs, 2005
 Agnès Desarthe, Isabelle Lortholary, Sophie Chérer, Chloé Mary, et al., Ecole des Loisirs, 2006
-Catharina Valckx, textes d'Élodie Boyer, Catharina Valckx et Sophie Chérer, l'École des loisirs, 2021
-Littérature générale
- Le Dimanche des Réparations, Éd. de l'Olivier, 1994
-À ceux qui nous ont offensés, Éd. de l'Olivier, 1999
-L'Enjoliveur, Stock, 2002
-Essais
-Ma Dolto, Stock, 2007 ; réédité avec des illustrations de Philippe Dumas, Ecole des Loisirs, 2009 - ouvrage autour de Françoise Dolto</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sophie_Ch%C3%A9rer</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sophie_Ch%C3%A9rer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Traductions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Depuis l'anglais vers le français
-Huit plus une de Robert Cormier ((en) Eight plus one), l'École des loisirs, 2004</t>
+Catharina Valckx, textes d'Élodie Boyer, Catharina Valckx et Sophie Chérer, l'École des loisirs, 2021</t>
         </is>
       </c>
     </row>
@@ -636,7 +659,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sophie_Ch%C3%A9rer</t>
+          <t>Sophie_Chérer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,13 +674,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Le Dimanche des Réparations, Éd. de l'Olivier, 1994
+À ceux qui nous ont offensés, Éd. de l'Olivier, 1999
+L'Enjoliveur, Stock, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sophie_Chérer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Ch%C3%A9rer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ma Dolto, Stock, 2007 ; réédité avec des illustrations de Philippe Dumas, Ecole des Loisirs, 2009 - ouvrage autour de Françoise Dolto</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sophie_Chérer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Ch%C3%A9rer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Depuis l'anglais vers le français
+Huit plus une de Robert Cormier ((en) Eight plus one), l'École des loisirs, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sophie_Chérer</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Ch%C3%A9rer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1996 : Prix Erckmann-Chatrian[2] pour Les Loups du paradis
-2003 :   Prix ado-lisant[3] pour L'huile d'olive ne meurt jamais</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1996 : Prix Erckmann-Chatrian pour Les Loups du paradis
+2003 :   Prix ado-lisant pour L'huile d'olive ne meurt jamais</t>
         </is>
       </c>
     </row>
